--- a/va_facility_data_2025-02-20/Sierra Vista VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sierra%20Vista%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Sierra Vista VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sierra%20Vista%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R760a3fd1bf514713a9330166e0ea97e6"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R90247b60c8df40008425aad4b85f273b"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7a61d335b55b49f58cfcc1d6fce124c2"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R2c80e80165314a96813a2df680ccd6e3"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R782b22cea5834273a70cbfefc3417f28"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8aa97440835d46128032d7b868da28c7"/>
   </x:sheets>
 </x:workbook>
 </file>
